--- a/草稿-装备.xlsx
+++ b/草稿-装备.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27990\Desktop\北风熔炉\数值文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B134C3-5616-4AD8-BF83-6272CFA2F7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E358FE-B816-4AD8-8DAE-8AE884B8FB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3458,8 +3458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530A0023-1E4D-4B75-A498-A90AA81AE366}">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/草稿-装备.xlsx
+++ b/草稿-装备.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E358FE-B816-4AD8-8DAE-8AE884B8FB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79BC9BF-AF1A-481A-A8D6-A78CDCD6175D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3458,8 +3458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530A0023-1E4D-4B75-A498-A90AA81AE366}">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/草稿-装备.xlsx
+++ b/草稿-装备.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79BC9BF-AF1A-481A-A8D6-A78CDCD6175D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A83D23-BA0B-425C-BD48-B0366B3D64D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1947,8 +1947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B25:J144"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3458,7 +3458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530A0023-1E4D-4B75-A498-A90AA81AE366}">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>

--- a/草稿-装备.xlsx
+++ b/草稿-装备.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A83D23-BA0B-425C-BD48-B0366B3D64D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE94DD4-0D3E-46E6-A16E-FD758053EFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="战士" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="361">
   <si>
     <t>装备名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1460,6 +1461,10 @@
   </si>
   <si>
     <t>1攻击属性=5暴击=4暴伤=5血=x蓝=2回蓝=1回合护盾=1速度=3伤害元素=6控制元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机目标选取要在范围内</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1947,7 +1952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B25:J144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
@@ -4928,4 +4933,25 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251F78F0-C38E-4AD8-A626-49DD5226AC96}">
+  <dimension ref="E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="16" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>